--- a/data/trans_orig/P55S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF94F585-88CB-42AC-9BE6-CEEAAEC48356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A744FCC-4FD6-4708-98B0-FD62437D2B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F3B3A0E-4C98-4769-82AF-557026B68D96}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77460D97-8B92-4EE4-8C80-678BAD2BD3C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="386">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -407,19 +407,19 @@
     <t>6,53%</t>
   </si>
   <si>
-    <t>28,3%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>9,18%</t>
   </si>
   <si>
-    <t>41,3%</t>
+    <t>41,81%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>24,4%</t>
+    <t>23,2%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -431,700 +431,697 @@
     <t>33,4%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>61,65%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>74,51%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
   </si>
   <si>
     <t>37,24%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>27,22%</t>
+    <t>28,18%</t>
   </si>
   <si>
     <t>17,27%</t>
   </si>
   <si>
-    <t>47,79%</t>
+    <t>50,33%</t>
   </si>
   <si>
     <t>12,0%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
   </si>
   <si>
     <t>31,41%</t>
   </si>
   <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>33,55%</t>
   </si>
   <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>58,97%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
     <t>24,91%</t>
   </si>
   <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>3,05%</t>
@@ -1133,49 +1130,49 @@
     <t>0,78%</t>
   </si>
   <si>
-    <t>8,13%</t>
+    <t>8,04%</t>
   </si>
   <si>
     <t>6,76%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>21,48%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
   </si>
   <si>
     <t>24,69%</t>
   </si>
   <si>
-    <t>19,9%</t>
+    <t>20,27%</t>
   </si>
   <si>
     <t>29,79%</t>
@@ -1184,25 +1181,22 @@
     <t>9,91%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB06CD5E-3415-4BED-A7D7-7007F52209BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE854449-265F-4965-BE37-C50C68FB8BC2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3481,7 +3475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3286B16-5613-407E-AF1D-9E44C1A8C2E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B21F03-43F9-4D06-80AF-5A69B24E1BA3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5420,7 +5414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325FFBAC-D935-4C80-820A-7046D3472682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC17875-0831-464E-9B2B-13B16F141725}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5937,7 +5931,7 @@
         <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,7 +6159,7 @@
         <v>1211</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -6180,7 +6174,7 @@
         <v>1211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -6214,7 +6208,7 @@
         <v>969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -6229,7 +6223,7 @@
         <v>969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
@@ -6361,7 +6355,7 @@
         <v>1022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -6376,7 +6370,7 @@
         <v>1022</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
@@ -6906,13 +6900,13 @@
         <v>1205</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6921,13 +6915,13 @@
         <v>1996</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6978,7 +6972,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7029,7 +7023,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7059,13 +7053,13 @@
         <v>6563</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -7074,13 +7068,13 @@
         <v>10614</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7110,13 +7104,13 @@
         <v>4269</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -7125,13 +7119,13 @@
         <v>5033</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7182,7 +7176,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,10 +7206,10 @@
         <v>4299</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>181</v>
@@ -7359,7 +7353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED5B8AB-701D-4755-8FBD-60583BCF76D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A2C8F7-B479-4DF5-AC99-9FA2A6711C64}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7720,7 +7714,7 @@
         <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>220</v>
@@ -7756,10 +7750,10 @@
         <v>80</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7768,13 +7762,13 @@
         <v>7390</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7783,13 @@
         <v>13186</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -7804,13 +7798,13 @@
         <v>23665</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -7819,13 +7813,13 @@
         <v>36851</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7840,13 +7834,13 @@
         <v>3135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -7855,13 +7849,13 @@
         <v>4937</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -7870,13 +7864,13 @@
         <v>8072</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7938,13 @@
         <v>777</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7959,13 +7953,13 @@
         <v>611</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -7974,13 +7968,13 @@
         <v>1389</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +7989,13 @@
         <v>658</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -8016,7 +8010,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8025,13 +8019,13 @@
         <v>658</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8052,7 +8046,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8061,13 +8055,13 @@
         <v>328</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -8076,13 +8070,13 @@
         <v>328</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8091,13 @@
         <v>4502</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -8112,13 +8106,13 @@
         <v>5330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8127,13 +8121,13 @@
         <v>9831</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8142,13 @@
         <v>4109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -8163,13 +8157,13 @@
         <v>7490</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M17" s="7">
         <v>18</v>
@@ -8178,13 +8172,13 @@
         <v>11598</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8199,13 +8193,13 @@
         <v>522</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -8214,13 +8208,13 @@
         <v>1605</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -8229,13 +8223,13 @@
         <v>2127</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8250,13 +8244,13 @@
         <v>4855</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -8265,13 +8259,13 @@
         <v>3787</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -8280,13 +8274,13 @@
         <v>8642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8301,13 +8295,13 @@
         <v>2289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -8322,7 +8316,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8331,13 +8325,13 @@
         <v>2289</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8441,7 +8435,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8492,7 +8486,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8543,7 +8537,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8573,7 +8567,7 @@
         <v>1927</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>301</v>
@@ -8902,7 +8896,7 @@
         <v>333</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8917,13 +8911,13 @@
         <v>658</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8938,7 +8932,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8947,13 +8941,13 @@
         <v>658</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8968,13 +8962,13 @@
         <v>361</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -8983,13 +8977,13 @@
         <v>328</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -8998,13 +8992,13 @@
         <v>689</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>344</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9076,7 +9070,7 @@
         <v>355</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>356</v>
+        <v>162</v>
       </c>
       <c r="H35" s="7">
         <v>55</v>
@@ -9088,10 +9082,10 @@
         <v>101</v>
       </c>
       <c r="K35" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M35" s="7">
         <v>77</v>
@@ -9100,13 +9094,13 @@
         <v>48586</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9121,13 +9115,13 @@
         <v>1959</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="H36" s="7">
         <v>15</v>
@@ -9136,13 +9130,13 @@
         <v>8843</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M36" s="7">
         <v>18</v>
@@ -9151,13 +9145,13 @@
         <v>10801</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9172,13 +9166,13 @@
         <v>20056</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H37" s="7">
         <v>49</v>
@@ -9187,13 +9181,13 @@
         <v>28114</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -9202,13 +9196,13 @@
         <v>48170</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9223,13 +9217,13 @@
         <v>6360</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -9238,13 +9232,13 @@
         <v>4937</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -9253,13 +9247,13 @@
         <v>11296</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P55S2-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S2-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A744FCC-4FD6-4708-98B0-FD62437D2B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E007498-39BB-41E0-9F29-18B6B186116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77460D97-8B92-4EE4-8C80-678BAD2BD3C1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A0D80203-E18C-4978-BCFF-2F2B47DBC021}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="385">
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>18,42%</t>
   </si>
   <si>
-    <t>71,56%</t>
+    <t>70,79%</t>
   </si>
   <si>
     <t>12,55%</t>
   </si>
   <si>
-    <t>48,12%</t>
+    <t>55,61%</t>
   </si>
   <si>
     <t>Ayuda pública: Enfermera del centro de salud o ambulatorio</t>
@@ -110,1005 +110,1005 @@
     <t>17,62%</t>
   </si>
   <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>Ayuda pública: Auxiliar de ayuda a domicilio de los servicio</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>Ayuda privada (pagada)</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>Un amigo o alguien que no cobra por eso</t>
+  </si>
+  <si>
+    <t>Un familiar que no vive con usted</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>Un familiar que vive con usted</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>56,12%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>Ayuda pública: Auxiliar de ayuda a domicilio de los servicio</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>Ayuda privada (pagada)</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>Un amigo o alguien que no cobra por eso</t>
-  </si>
-  <si>
-    <t>Un familiar que no vive con usted</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>Un familiar que vive con usted</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2012 (Tasa respuesta: 0,74%)</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2016 (Tasa respuesta: 0,43%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
   </si>
   <si>
     <t>5,62%</t>
   </si>
   <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2015 (Tasa respuesta: 0,43%)</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>41,81%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>58,29%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 2 en 2023 (Tasa respuesta: 3,83%)</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
     <t>19,75%</t>
   </si>
   <si>
@@ -1140,9 +1140,6 @@
   </si>
   <si>
     <t>10,31%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
   </si>
   <si>
     <t>3,36%</t>
@@ -1608,7 +1605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE854449-265F-4965-BE37-C50C68FB8BC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28829672-D52E-436A-B51D-E3D483C0330F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3475,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B21F03-43F9-4D06-80AF-5A69B24E1BA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4AF802-E862-429D-9F07-2071E456C11A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5414,7 +5411,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EC17875-0831-464E-9B2B-13B16F141725}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9530503-B9F9-4E04-9123-4FE877C53357}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5898,10 +5895,10 @@
         <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -5925,13 +5922,13 @@
         <v>2711</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6159,7 +6156,7 @@
         <v>1211</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -6174,7 +6171,7 @@
         <v>1211</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -6208,7 +6205,7 @@
         <v>969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -6223,7 +6220,7 @@
         <v>969</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
@@ -6355,7 +6352,7 @@
         <v>1022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
@@ -6370,7 +6367,7 @@
         <v>1022</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
@@ -6900,13 +6897,13 @@
         <v>1205</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>164</v>
+        <v>34</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -6915,13 +6912,13 @@
         <v>1996</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,7 +6969,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,7 +7020,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7050,13 @@
         <v>6563</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M34" s="7">
         <v>10</v>
@@ -7068,13 +7065,13 @@
         <v>10614</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7101,13 @@
         <v>4269</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M35" s="7">
         <v>5</v>
@@ -7119,13 +7116,13 @@
         <v>5033</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,7 +7173,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7206,13 +7203,13 @@
         <v>4299</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -7221,13 +7218,13 @@
         <v>8108</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,10 +7242,10 @@
         <v>154</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -7257,13 +7254,13 @@
         <v>1022</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M38" s="7">
         <v>4</v>
@@ -7272,13 +7269,13 @@
         <v>3733</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7353,7 +7350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A2C8F7-B479-4DF5-AC99-9FA2A6711C64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47DCD969-3994-4CC1-8EEC-EDC45F01E359}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7370,7 +7367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7477,13 +7474,13 @@
         <v>632</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7492,13 +7489,13 @@
         <v>508</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -7507,13 +7504,13 @@
         <v>1140</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,37 +7531,37 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,13 +7576,13 @@
         <v>361</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -7600,7 +7597,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -7609,13 +7606,13 @@
         <v>361</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7627,13 @@
         <v>14494</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H7" s="7">
         <v>91</v>
@@ -7645,13 +7642,13 @@
         <v>46078</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M7" s="7">
         <v>112</v>
@@ -7660,13 +7657,13 @@
         <v>60572</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7678,13 @@
         <v>8449</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H8" s="7">
         <v>39</v>
@@ -7696,13 +7693,13 @@
         <v>24817</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M8" s="7">
         <v>53</v>
@@ -7711,13 +7708,13 @@
         <v>33266</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>79</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7729,13 @@
         <v>1437</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -7747,13 +7744,13 @@
         <v>5954</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>80</v>
+        <v>221</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7762,13 +7759,13 @@
         <v>7390</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7780,13 @@
         <v>13186</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -7798,13 +7795,13 @@
         <v>23665</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -7813,13 +7810,13 @@
         <v>36851</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7834,13 +7831,13 @@
         <v>3135</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H11" s="7">
         <v>10</v>
@@ -7849,13 +7846,13 @@
         <v>4937</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M11" s="7">
         <v>14</v>
@@ -7864,13 +7861,13 @@
         <v>8072</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,13 +7935,13 @@
         <v>777</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -7953,13 +7950,13 @@
         <v>611</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -7968,13 +7965,13 @@
         <v>1389</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,28 +7986,28 @@
         <v>658</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -8019,13 +8016,13 @@
         <v>658</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,7 +8043,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H15" s="7">
         <v>1</v>
@@ -8055,13 +8052,13 @@
         <v>328</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -8070,13 +8067,13 @@
         <v>328</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,13 +8088,13 @@
         <v>4502</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -8106,13 +8103,13 @@
         <v>5330</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M16" s="7">
         <v>19</v>
@@ -8121,13 +8118,13 @@
         <v>9831</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,7 +8139,7 @@
         <v>4109</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>126</v>
+        <v>269</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>270</v>
@@ -8316,7 +8313,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -8435,7 +8432,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8486,7 +8483,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8537,7 +8534,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>300</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8570,10 +8567,10 @@
         <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M25" s="7">
         <v>3</v>
@@ -8582,13 +8579,13 @@
         <v>1927</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,13 +8600,13 @@
         <v>1842</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -8618,13 +8615,13 @@
         <v>1880</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>6</v>
@@ -8633,13 +8630,13 @@
         <v>3721</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8669,13 +8666,13 @@
         <v>1284</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M27" s="7">
         <v>2</v>
@@ -8684,13 +8681,13 @@
         <v>1284</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8705,13 +8702,13 @@
         <v>2015</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8720,13 +8717,13 @@
         <v>662</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8735,13 +8732,13 @@
         <v>2677</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8756,13 +8753,13 @@
         <v>936</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -8786,13 +8783,13 @@
         <v>936</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8860,13 +8857,13 @@
         <v>1409</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -8875,13 +8872,13 @@
         <v>1119</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -8890,13 +8887,13 @@
         <v>2529</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8911,28 +8908,28 @@
         <v>658</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -8941,13 +8938,13 @@
         <v>658</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8962,13 +8959,13 @@
         <v>361</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -8977,13 +8974,13 @@
         <v>328</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M33" s="7">
         <v>2</v>
@@ -8992,13 +8989,13 @@
         <v>689</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -9013,13 +9010,13 @@
         <v>18996</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="H34" s="7">
         <v>105</v>
@@ -9028,13 +9025,13 @@
         <v>53335</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M34" s="7">
         <v>134</v>
@@ -9043,13 +9040,13 @@
         <v>72330</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9064,13 +9061,13 @@
         <v>14400</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>355</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H35" s="7">
         <v>55</v>
@@ -9079,7 +9076,7 @@
         <v>34186</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>101</v>
+        <v>355</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>356</v>
@@ -9145,13 +9142,13 @@
         <v>10801</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9166,13 +9163,13 @@
         <v>20056</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H37" s="7">
         <v>49</v>
@@ -9181,13 +9178,13 @@
         <v>28114</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M37" s="7">
         <v>78</v>
@@ -9196,13 +9193,13 @@
         <v>48170</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9217,13 +9214,13 @@
         <v>6360</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="H38" s="7">
         <v>10</v>
@@ -9232,13 +9229,13 @@
         <v>4937</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M38" s="7">
         <v>19</v>
@@ -9247,13 +9244,13 @@
         <v>11296</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
